--- a/Reports/YTDReport/Feb.xlsx
+++ b/Reports/YTDReport/Feb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\Reports\YTDReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3D0CD-AD89-4737-9A77-3307DD551901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBD353-2272-4F3D-A407-AE4F4D839F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="285" windowWidth="13320" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1008">
   <si>
     <t>RMA ID</t>
   </si>
@@ -3109,6 +3109,9 @@
   </si>
   <si>
     <t>February</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -3456,11 +3459,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:Y295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X232" sqref="X232:X295"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,10 +3490,10 @@
     <col min="21" max="21" width="13.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="21.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3563,8 +3566,11 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3637,8 +3643,11 @@
       <c r="X2" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -3711,8 +3720,11 @@
       <c r="X3" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -3785,8 +3797,11 @@
       <c r="X4" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -3859,8 +3874,11 @@
       <c r="X5" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -3933,8 +3951,11 @@
       <c r="X6" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -4007,8 +4028,11 @@
       <c r="X7" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -4081,8 +4105,11 @@
       <c r="X8" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4155,8 +4182,11 @@
       <c r="X9" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -4229,8 +4259,11 @@
       <c r="X10" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -4303,8 +4336,11 @@
       <c r="X11" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -4377,8 +4413,11 @@
       <c r="X12" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -4451,8 +4490,11 @@
       <c r="X13" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -4525,8 +4567,11 @@
       <c r="X14" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -4599,8 +4644,11 @@
       <c r="X15" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -4673,8 +4721,11 @@
       <c r="X16" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
@@ -4747,8 +4798,11 @@
       <c r="X17" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>133</v>
       </c>
@@ -4821,8 +4875,11 @@
       <c r="X18" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -4895,8 +4952,11 @@
       <c r="X19" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>151</v>
       </c>
@@ -4969,8 +5029,11 @@
       <c r="X20" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>159</v>
       </c>
@@ -5043,8 +5106,11 @@
       <c r="X21" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>165</v>
       </c>
@@ -5117,8 +5183,11 @@
       <c r="X22" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
@@ -5191,8 +5260,11 @@
       <c r="X23" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
@@ -5265,8 +5337,11 @@
       <c r="X24" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>181</v>
       </c>
@@ -5339,8 +5414,11 @@
       <c r="X25" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
@@ -5413,8 +5491,11 @@
       <c r="X26" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -5487,8 +5568,11 @@
       <c r="X27" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>200</v>
       </c>
@@ -5561,8 +5645,11 @@
       <c r="X28" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>208</v>
       </c>
@@ -5635,8 +5722,11 @@
       <c r="X29" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>217</v>
       </c>
@@ -5709,8 +5799,11 @@
       <c r="X30" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>224</v>
       </c>
@@ -5783,8 +5876,11 @@
       <c r="X31" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>224</v>
       </c>
@@ -5857,8 +5953,11 @@
       <c r="X32" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
@@ -5931,8 +6030,11 @@
       <c r="X33" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>237</v>
       </c>
@@ -6005,8 +6107,11 @@
       <c r="X34" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>237</v>
       </c>
@@ -6079,8 +6184,11 @@
       <c r="X35" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>237</v>
       </c>
@@ -6153,8 +6261,11 @@
       <c r="X36" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>237</v>
       </c>
@@ -6227,8 +6338,11 @@
       <c r="X37" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>237</v>
       </c>
@@ -6301,8 +6415,11 @@
       <c r="X38" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>243</v>
       </c>
@@ -6375,8 +6492,11 @@
       <c r="X39" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>243</v>
       </c>
@@ -6449,8 +6569,11 @@
       <c r="X40" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>250</v>
       </c>
@@ -6523,8 +6646,11 @@
       <c r="X41" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>257</v>
       </c>
@@ -6597,8 +6723,11 @@
       <c r="X42" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>262</v>
       </c>
@@ -6671,8 +6800,11 @@
       <c r="X43" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>262</v>
       </c>
@@ -6745,8 +6877,11 @@
       <c r="X44" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>268</v>
       </c>
@@ -6819,8 +6954,11 @@
       <c r="X45" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>268</v>
       </c>
@@ -6893,8 +7031,11 @@
       <c r="X46" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
@@ -6967,8 +7108,11 @@
       <c r="X47" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>286</v>
       </c>
@@ -7041,8 +7185,11 @@
       <c r="X48" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>286</v>
       </c>
@@ -7115,8 +7262,11 @@
       <c r="X49" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>295</v>
       </c>
@@ -7189,8 +7339,11 @@
       <c r="X50" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>300</v>
       </c>
@@ -7263,8 +7416,11 @@
       <c r="X51" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>308</v>
       </c>
@@ -7337,8 +7493,11 @@
       <c r="X52" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>308</v>
       </c>
@@ -7411,8 +7570,11 @@
       <c r="X53" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>316</v>
       </c>
@@ -7485,8 +7647,11 @@
       <c r="X54" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>322</v>
       </c>
@@ -7559,8 +7724,11 @@
       <c r="X55" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>328</v>
       </c>
@@ -7633,8 +7801,11 @@
       <c r="X56" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>328</v>
       </c>
@@ -7707,8 +7878,11 @@
       <c r="X57" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>338</v>
       </c>
@@ -7781,8 +7955,11 @@
       <c r="X58" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>344</v>
       </c>
@@ -7855,8 +8032,11 @@
       <c r="X59" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>353</v>
       </c>
@@ -7929,8 +8109,11 @@
       <c r="X60" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>353</v>
       </c>
@@ -8003,8 +8186,11 @@
       <c r="X61" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>359</v>
       </c>
@@ -8077,8 +8263,11 @@
       <c r="X62" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>363</v>
       </c>
@@ -8151,8 +8340,11 @@
       <c r="X63" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>370</v>
       </c>
@@ -8225,8 +8417,11 @@
       <c r="X64" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>370</v>
       </c>
@@ -8299,8 +8494,11 @@
       <c r="X65" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>375</v>
       </c>
@@ -8373,8 +8571,11 @@
       <c r="X66" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>380</v>
       </c>
@@ -8447,8 +8648,11 @@
       <c r="X67" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>380</v>
       </c>
@@ -8521,8 +8725,11 @@
       <c r="X68" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>386</v>
       </c>
@@ -8595,8 +8802,11 @@
       <c r="X69" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>394</v>
       </c>
@@ -8669,8 +8879,11 @@
       <c r="X70" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>394</v>
       </c>
@@ -8743,8 +8956,11 @@
       <c r="X71" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>394</v>
       </c>
@@ -8817,8 +9033,11 @@
       <c r="X72" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>394</v>
       </c>
@@ -8891,8 +9110,11 @@
       <c r="X73" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>394</v>
       </c>
@@ -8965,8 +9187,11 @@
       <c r="X74" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>394</v>
       </c>
@@ -9039,8 +9264,11 @@
       <c r="X75" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>422</v>
       </c>
@@ -9113,8 +9341,11 @@
       <c r="X76" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>430</v>
       </c>
@@ -9187,8 +9418,11 @@
       <c r="X77" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>435</v>
       </c>
@@ -9261,8 +9495,11 @@
       <c r="X78" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>438</v>
       </c>
@@ -9335,8 +9572,11 @@
       <c r="X79" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>445</v>
       </c>
@@ -9409,8 +9649,11 @@
       <c r="X80" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>454</v>
       </c>
@@ -9483,8 +9726,11 @@
       <c r="X81" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>460</v>
       </c>
@@ -9557,8 +9803,11 @@
       <c r="X82" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>460</v>
       </c>
@@ -9631,8 +9880,11 @@
       <c r="X83" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>466</v>
       </c>
@@ -9705,8 +9957,11 @@
       <c r="X84" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>471</v>
       </c>
@@ -9779,8 +10034,11 @@
       <c r="X85" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>477</v>
       </c>
@@ -9853,8 +10111,11 @@
       <c r="X86" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>477</v>
       </c>
@@ -9927,8 +10188,11 @@
       <c r="X87" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>484</v>
       </c>
@@ -10001,8 +10265,11 @@
       <c r="X88" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>484</v>
       </c>
@@ -10075,8 +10342,11 @@
       <c r="X89" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>484</v>
       </c>
@@ -10149,8 +10419,11 @@
       <c r="X90" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>484</v>
       </c>
@@ -10223,8 +10496,11 @@
       <c r="X91" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>484</v>
       </c>
@@ -10297,8 +10573,11 @@
       <c r="X92" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>484</v>
       </c>
@@ -10371,8 +10650,11 @@
       <c r="X93" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>500</v>
       </c>
@@ -10445,8 +10727,11 @@
       <c r="X94" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>503</v>
       </c>
@@ -10519,8 +10804,11 @@
       <c r="X95" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>511</v>
       </c>
@@ -10593,8 +10881,11 @@
       <c r="X96" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>520</v>
       </c>
@@ -10667,8 +10958,11 @@
       <c r="X97" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>527</v>
       </c>
@@ -10741,8 +11035,11 @@
       <c r="X98" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>534</v>
       </c>
@@ -10815,8 +11112,11 @@
       <c r="X99" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>541</v>
       </c>
@@ -10889,8 +11189,11 @@
       <c r="X100" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>548</v>
       </c>
@@ -10963,8 +11266,11 @@
       <c r="X101" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>548</v>
       </c>
@@ -11037,8 +11343,11 @@
       <c r="X102" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>548</v>
       </c>
@@ -11111,8 +11420,11 @@
       <c r="X103" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>548</v>
       </c>
@@ -11185,8 +11497,11 @@
       <c r="X104" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y104" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>548</v>
       </c>
@@ -11259,8 +11574,11 @@
       <c r="X105" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>548</v>
       </c>
@@ -11333,8 +11651,11 @@
       <c r="X106" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>548</v>
       </c>
@@ -11407,8 +11728,11 @@
       <c r="X107" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>548</v>
       </c>
@@ -11481,8 +11805,11 @@
       <c r="X108" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>548</v>
       </c>
@@ -11555,8 +11882,11 @@
       <c r="X109" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>552</v>
       </c>
@@ -11629,8 +11959,11 @@
       <c r="X110" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>559</v>
       </c>
@@ -11703,8 +12036,11 @@
       <c r="X111" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>565</v>
       </c>
@@ -11777,8 +12113,11 @@
       <c r="X112" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y112" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>570</v>
       </c>
@@ -11851,8 +12190,11 @@
       <c r="X113" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y113" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>570</v>
       </c>
@@ -11925,8 +12267,11 @@
       <c r="X114" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y114" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>570</v>
       </c>
@@ -11999,8 +12344,11 @@
       <c r="X115" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y115" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>570</v>
       </c>
@@ -12073,8 +12421,11 @@
       <c r="X116" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y116" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>594</v>
       </c>
@@ -12147,8 +12498,11 @@
       <c r="X117" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y117" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>597</v>
       </c>
@@ -12221,8 +12575,11 @@
       <c r="X118" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y118" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>605</v>
       </c>
@@ -12295,8 +12652,11 @@
       <c r="X119" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y119" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>605</v>
       </c>
@@ -12369,8 +12729,11 @@
       <c r="X120" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y120" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>615</v>
       </c>
@@ -12443,8 +12806,11 @@
       <c r="X121" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y121" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>615</v>
       </c>
@@ -12517,8 +12883,11 @@
       <c r="X122" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y122" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>628</v>
       </c>
@@ -12591,8 +12960,11 @@
       <c r="X123" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>633</v>
       </c>
@@ -12665,8 +13037,11 @@
       <c r="X124" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>633</v>
       </c>
@@ -12739,8 +13114,11 @@
       <c r="X125" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>638</v>
       </c>
@@ -12813,8 +13191,11 @@
       <c r="X126" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>642</v>
       </c>
@@ -12887,8 +13268,11 @@
       <c r="X127" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>642</v>
       </c>
@@ -12961,8 +13345,11 @@
       <c r="X128" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>651</v>
       </c>
@@ -13035,8 +13422,11 @@
       <c r="X129" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>651</v>
       </c>
@@ -13109,8 +13499,11 @@
       <c r="X130" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>657</v>
       </c>
@@ -13183,8 +13576,11 @@
       <c r="X131" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>657</v>
       </c>
@@ -13257,8 +13653,11 @@
       <c r="X132" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>659</v>
       </c>
@@ -13331,8 +13730,11 @@
       <c r="X133" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>659</v>
       </c>
@@ -13405,8 +13807,11 @@
       <c r="X134" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>659</v>
       </c>
@@ -13479,8 +13884,11 @@
       <c r="X135" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>659</v>
       </c>
@@ -13553,8 +13961,11 @@
       <c r="X136" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>665</v>
       </c>
@@ -13627,8 +14038,11 @@
       <c r="X137" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>665</v>
       </c>
@@ -13701,8 +14115,11 @@
       <c r="X138" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>673</v>
       </c>
@@ -13775,8 +14192,11 @@
       <c r="X139" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>680</v>
       </c>
@@ -13849,8 +14269,11 @@
       <c r="X140" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>680</v>
       </c>
@@ -13923,8 +14346,11 @@
       <c r="X141" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>692</v>
       </c>
@@ -13997,8 +14423,11 @@
       <c r="X142" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>698</v>
       </c>
@@ -14071,8 +14500,11 @@
       <c r="X143" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y143" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>700</v>
       </c>
@@ -14145,8 +14577,11 @@
       <c r="X144" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>700</v>
       </c>
@@ -14219,8 +14654,11 @@
       <c r="X145" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>708</v>
       </c>
@@ -14293,8 +14731,11 @@
       <c r="X146" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>715</v>
       </c>
@@ -14367,8 +14808,11 @@
       <c r="X147" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>715</v>
       </c>
@@ -14441,8 +14885,11 @@
       <c r="X148" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>721</v>
       </c>
@@ -14515,8 +14962,11 @@
       <c r="X149" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>721</v>
       </c>
@@ -14589,8 +15039,11 @@
       <c r="X150" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>728</v>
       </c>
@@ -14663,8 +15116,11 @@
       <c r="X151" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>728</v>
       </c>
@@ -14737,8 +15193,11 @@
       <c r="X152" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>736</v>
       </c>
@@ -14811,8 +15270,11 @@
       <c r="X153" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y153" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>744</v>
       </c>
@@ -14885,8 +15347,11 @@
       <c r="X154" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>744</v>
       </c>
@@ -14959,8 +15424,11 @@
       <c r="X155" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>744</v>
       </c>
@@ -15033,8 +15501,11 @@
       <c r="X156" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>744</v>
       </c>
@@ -15107,8 +15578,11 @@
       <c r="X157" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>760</v>
       </c>
@@ -15181,8 +15655,11 @@
       <c r="X158" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>763</v>
       </c>
@@ -15255,8 +15732,11 @@
       <c r="X159" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>767</v>
       </c>
@@ -15329,8 +15809,11 @@
       <c r="X160" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>767</v>
       </c>
@@ -15403,8 +15886,11 @@
       <c r="X161" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y161" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>779</v>
       </c>
@@ -15477,8 +15963,11 @@
       <c r="X162" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>779</v>
       </c>
@@ -15551,8 +16040,11 @@
       <c r="X163" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>789</v>
       </c>
@@ -15625,8 +16117,11 @@
       <c r="X164" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>789</v>
       </c>
@@ -15699,8 +16194,11 @@
       <c r="X165" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y165" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>793</v>
       </c>
@@ -15773,8 +16271,11 @@
       <c r="X166" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>795</v>
       </c>
@@ -15847,8 +16348,11 @@
       <c r="X167" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>795</v>
       </c>
@@ -15921,8 +16425,11 @@
       <c r="X168" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>795</v>
       </c>
@@ -15995,8 +16502,11 @@
       <c r="X169" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>795</v>
       </c>
@@ -16069,8 +16579,11 @@
       <c r="X170" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y170" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>795</v>
       </c>
@@ -16143,8 +16656,11 @@
       <c r="X171" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>795</v>
       </c>
@@ -16217,8 +16733,11 @@
       <c r="X172" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>795</v>
       </c>
@@ -16291,8 +16810,11 @@
       <c r="X173" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>795</v>
       </c>
@@ -16365,8 +16887,11 @@
       <c r="X174" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>799</v>
       </c>
@@ -16439,8 +16964,11 @@
       <c r="X175" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>799</v>
       </c>
@@ -16513,8 +17041,11 @@
       <c r="X176" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>807</v>
       </c>
@@ -16587,8 +17118,11 @@
       <c r="X177" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>807</v>
       </c>
@@ -16661,8 +17195,11 @@
       <c r="X178" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y178" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>807</v>
       </c>
@@ -16735,8 +17272,11 @@
       <c r="X179" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y179" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>815</v>
       </c>
@@ -16809,8 +17349,11 @@
       <c r="X180" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y180" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>815</v>
       </c>
@@ -16883,8 +17426,11 @@
       <c r="X181" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y181" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>823</v>
       </c>
@@ -16957,8 +17503,11 @@
       <c r="X182" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y182" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>823</v>
       </c>
@@ -17031,8 +17580,11 @@
       <c r="X183" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y183" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>823</v>
       </c>
@@ -17105,8 +17657,11 @@
       <c r="X184" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y184" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>823</v>
       </c>
@@ -17179,8 +17734,11 @@
       <c r="X185" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y185" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>833</v>
       </c>
@@ -17253,8 +17811,11 @@
       <c r="X186" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y186" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>833</v>
       </c>
@@ -17327,8 +17888,11 @@
       <c r="X187" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y187" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>839</v>
       </c>
@@ -17401,8 +17965,11 @@
       <c r="X188" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y188" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>843</v>
       </c>
@@ -17475,8 +18042,11 @@
       <c r="X189" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y189" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>843</v>
       </c>
@@ -17549,8 +18119,11 @@
       <c r="X190" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y190" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>843</v>
       </c>
@@ -17623,8 +18196,11 @@
       <c r="X191" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y191" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>843</v>
       </c>
@@ -17697,8 +18273,11 @@
       <c r="X192" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y192" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>850</v>
       </c>
@@ -17771,8 +18350,11 @@
       <c r="X193" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y193" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>850</v>
       </c>
@@ -17845,8 +18427,11 @@
       <c r="X194" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y194" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>854</v>
       </c>
@@ -17919,8 +18504,11 @@
       <c r="X195" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y195" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>859</v>
       </c>
@@ -17993,8 +18581,11 @@
       <c r="X196" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y196" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>863</v>
       </c>
@@ -18067,8 +18658,11 @@
       <c r="X197" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y197" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>869</v>
       </c>
@@ -18141,8 +18735,11 @@
       <c r="X198" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y198" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>875</v>
       </c>
@@ -18215,8 +18812,11 @@
       <c r="X199" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y199" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>883</v>
       </c>
@@ -18289,8 +18889,11 @@
       <c r="X200" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y200" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>883</v>
       </c>
@@ -18363,8 +18966,11 @@
       <c r="X201" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y201" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>888</v>
       </c>
@@ -18437,8 +19043,11 @@
       <c r="X202" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y202" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>891</v>
       </c>
@@ -18511,8 +19120,11 @@
       <c r="X203" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y203" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>891</v>
       </c>
@@ -18585,8 +19197,11 @@
       <c r="X204" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y204" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>891</v>
       </c>
@@ -18659,8 +19274,11 @@
       <c r="X205" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y205" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>891</v>
       </c>
@@ -18733,8 +19351,11 @@
       <c r="X206" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y206" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>904</v>
       </c>
@@ -18807,8 +19428,11 @@
       <c r="X207" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y207" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>904</v>
       </c>
@@ -18881,8 +19505,11 @@
       <c r="X208" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y208" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>904</v>
       </c>
@@ -18955,8 +19582,11 @@
       <c r="X209" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y209" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>904</v>
       </c>
@@ -19029,8 +19659,11 @@
       <c r="X210" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y210" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>917</v>
       </c>
@@ -19103,8 +19736,11 @@
       <c r="X211" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y211" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>923</v>
       </c>
@@ -19177,8 +19813,11 @@
       <c r="X212" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y212" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>923</v>
       </c>
@@ -19251,8 +19890,11 @@
       <c r="X213" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y213" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>928</v>
       </c>
@@ -19325,8 +19967,11 @@
       <c r="X214" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y214" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>933</v>
       </c>
@@ -19399,8 +20044,11 @@
       <c r="X215" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y215" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>933</v>
       </c>
@@ -19473,8 +20121,11 @@
       <c r="X216" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y216" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>937</v>
       </c>
@@ -19547,8 +20198,11 @@
       <c r="X217" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y217" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>944</v>
       </c>
@@ -19621,8 +20275,11 @@
       <c r="X218" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y218" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>949</v>
       </c>
@@ -19695,8 +20352,11 @@
       <c r="X219" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y219" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>953</v>
       </c>
@@ -19769,8 +20429,11 @@
       <c r="X220" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y220" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>959</v>
       </c>
@@ -19843,8 +20506,11 @@
       <c r="X221" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y221" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>959</v>
       </c>
@@ -19917,8 +20583,11 @@
       <c r="X222" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y222" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>959</v>
       </c>
@@ -19991,8 +20660,11 @@
       <c r="X223" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y223" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>968</v>
       </c>
@@ -20065,8 +20737,11 @@
       <c r="X224" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y224" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>971</v>
       </c>
@@ -20139,8 +20814,11 @@
       <c r="X225" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y225" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>979</v>
       </c>
@@ -20213,8 +20891,11 @@
       <c r="X226" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y226" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>985</v>
       </c>
@@ -20287,8 +20968,11 @@
       <c r="X227" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y227" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>985</v>
       </c>
@@ -20361,8 +21045,11 @@
       <c r="X228" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y228" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>991</v>
       </c>
@@ -20435,8 +21122,11 @@
       <c r="X229" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y229" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>999</v>
       </c>
@@ -20509,8 +21199,11 @@
       <c r="X230" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y230" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1002</v>
       </c>
@@ -20583,198 +21276,265 @@
       <c r="X231" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y231" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X232"/>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y232"/>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X233"/>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y233"/>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X234"/>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y234"/>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X235"/>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y235"/>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X236"/>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y236"/>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X237"/>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y237"/>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X238"/>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y238"/>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X239"/>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y239"/>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X240"/>
-    </row>
-    <row r="241" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y240"/>
+    </row>
+    <row r="241" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X241"/>
-    </row>
-    <row r="242" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y241"/>
+    </row>
+    <row r="242" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X242"/>
-    </row>
-    <row r="243" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y242"/>
+    </row>
+    <row r="243" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X243"/>
-    </row>
-    <row r="244" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y243"/>
+    </row>
+    <row r="244" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X244"/>
-    </row>
-    <row r="245" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y244"/>
+    </row>
+    <row r="245" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X245"/>
-    </row>
-    <row r="246" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y245"/>
+    </row>
+    <row r="246" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X246"/>
-    </row>
-    <row r="247" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y246"/>
+    </row>
+    <row r="247" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X247"/>
-    </row>
-    <row r="248" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y247"/>
+    </row>
+    <row r="248" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X248"/>
-    </row>
-    <row r="249" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y248"/>
+    </row>
+    <row r="249" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X249"/>
-    </row>
-    <row r="250" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y249"/>
+    </row>
+    <row r="250" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X250"/>
-    </row>
-    <row r="251" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y250"/>
+    </row>
+    <row r="251" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X251"/>
-    </row>
-    <row r="252" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y251"/>
+    </row>
+    <row r="252" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X252"/>
-    </row>
-    <row r="253" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y252"/>
+    </row>
+    <row r="253" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X253"/>
-    </row>
-    <row r="254" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y253"/>
+    </row>
+    <row r="254" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X254"/>
-    </row>
-    <row r="255" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y254"/>
+    </row>
+    <row r="255" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X255"/>
-    </row>
-    <row r="256" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y255"/>
+    </row>
+    <row r="256" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X256"/>
-    </row>
-    <row r="257" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y256"/>
+    </row>
+    <row r="257" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X257"/>
-    </row>
-    <row r="258" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y257"/>
+    </row>
+    <row r="258" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X258"/>
-    </row>
-    <row r="259" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y258"/>
+    </row>
+    <row r="259" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X259"/>
-    </row>
-    <row r="260" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y259"/>
+    </row>
+    <row r="260" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X260"/>
-    </row>
-    <row r="261" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y260"/>
+    </row>
+    <row r="261" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X261"/>
-    </row>
-    <row r="262" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y261"/>
+    </row>
+    <row r="262" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X262"/>
-    </row>
-    <row r="263" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y262"/>
+    </row>
+    <row r="263" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X263"/>
-    </row>
-    <row r="264" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y263"/>
+    </row>
+    <row r="264" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X264"/>
-    </row>
-    <row r="265" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y264"/>
+    </row>
+    <row r="265" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X265"/>
-    </row>
-    <row r="266" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y265"/>
+    </row>
+    <row r="266" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X266"/>
-    </row>
-    <row r="267" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y266"/>
+    </row>
+    <row r="267" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X267"/>
-    </row>
-    <row r="268" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y267"/>
+    </row>
+    <row r="268" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X268"/>
-    </row>
-    <row r="269" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y268"/>
+    </row>
+    <row r="269" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X269"/>
-    </row>
-    <row r="270" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y269"/>
+    </row>
+    <row r="270" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X270"/>
-    </row>
-    <row r="271" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y270"/>
+    </row>
+    <row r="271" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X271"/>
-    </row>
-    <row r="272" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y271"/>
+    </row>
+    <row r="272" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X272"/>
-    </row>
-    <row r="273" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y272"/>
+    </row>
+    <row r="273" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X273"/>
-    </row>
-    <row r="274" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y273"/>
+    </row>
+    <row r="274" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X274"/>
-    </row>
-    <row r="275" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y274"/>
+    </row>
+    <row r="275" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X275"/>
-    </row>
-    <row r="276" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y275"/>
+    </row>
+    <row r="276" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X276"/>
-    </row>
-    <row r="277" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y276"/>
+    </row>
+    <row r="277" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X277"/>
-    </row>
-    <row r="278" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y277"/>
+    </row>
+    <row r="278" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X278"/>
-    </row>
-    <row r="279" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y278"/>
+    </row>
+    <row r="279" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X279"/>
-    </row>
-    <row r="280" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y279"/>
+    </row>
+    <row r="280" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X280"/>
-    </row>
-    <row r="281" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y280"/>
+    </row>
+    <row r="281" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X281"/>
-    </row>
-    <row r="282" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y281"/>
+    </row>
+    <row r="282" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X282"/>
-    </row>
-    <row r="283" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y282"/>
+    </row>
+    <row r="283" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X283"/>
-    </row>
-    <row r="284" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y283"/>
+    </row>
+    <row r="284" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X284"/>
-    </row>
-    <row r="285" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y284"/>
+    </row>
+    <row r="285" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X285"/>
-    </row>
-    <row r="286" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y285"/>
+    </row>
+    <row r="286" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X286"/>
-    </row>
-    <row r="287" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y286"/>
+    </row>
+    <row r="287" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X287"/>
-    </row>
-    <row r="288" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y287"/>
+    </row>
+    <row r="288" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X288"/>
-    </row>
-    <row r="289" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y288"/>
+    </row>
+    <row r="289" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X289"/>
-    </row>
-    <row r="290" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y289"/>
+    </row>
+    <row r="290" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X290"/>
-    </row>
-    <row r="291" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y290"/>
+    </row>
+    <row r="291" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X291"/>
-    </row>
-    <row r="292" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y291"/>
+    </row>
+    <row r="292" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X292"/>
-    </row>
-    <row r="293" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y292"/>
+    </row>
+    <row r="293" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X293"/>
-    </row>
-    <row r="294" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y293"/>
+    </row>
+    <row r="294" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X294"/>
-    </row>
-    <row r="295" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="Y294"/>
+    </row>
+    <row r="295" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X295"/>
+      <c r="Y295"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X231" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
